--- a/TIMES-DE/SuppXLS/Scen_IND_Base_constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IND_Base_constraint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES_AZ\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999B59D-4F5C-42D5-8FA4-E6547366FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{3999B59D-4F5C-42D5-8FA4-E6547366FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD362D9-8197-4A66-87DC-224441E6192C}"/>
   <bookViews>
-    <workbookView xWindow="19764" yWindow="720" windowWidth="21012" windowHeight="14256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UCT3" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>UC_N</t>
   </si>
@@ -142,6 +142,57 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>WPE</t>
+  </si>
+  <si>
+    <t>WCH</t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>HFO</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>HCE</t>
+  </si>
+  <si>
+    <t>HDE</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Iron&amp;Steel procesheat</t>
+  </si>
+  <si>
+    <t>Aluminium proces heat</t>
+  </si>
+  <si>
+    <t>Textile proces heat</t>
+  </si>
+  <si>
+    <t>Other proces heat</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -244,14 +295,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Procent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,7 +318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,27 +638,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
@@ -618,12 +669,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>7</v>
       </c>
@@ -636,8 +702,53 @@
       <c r="S4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>2010</v>
+      </c>
+      <c r="Y4">
+        <v>2015</v>
+      </c>
+      <c r="Z4">
+        <v>2019</v>
+      </c>
+      <c r="AC4">
+        <v>2010</v>
+      </c>
+      <c r="AD4">
+        <v>2015</v>
+      </c>
+      <c r="AE4">
+        <v>2019</v>
+      </c>
+      <c r="AH4">
+        <v>2010</v>
+      </c>
+      <c r="AI4">
+        <v>2015</v>
+      </c>
+      <c r="AJ4">
+        <v>2019</v>
+      </c>
+      <c r="AM4">
+        <v>2010</v>
+      </c>
+      <c r="AN4">
+        <v>2015</v>
+      </c>
+      <c r="AO4">
+        <v>2019</v>
+      </c>
+      <c r="AR4">
+        <v>2010</v>
+      </c>
+      <c r="AS4">
+        <v>2015</v>
+      </c>
+      <c r="AT4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,19 +790,82 @@
         <v>16</v>
       </c>
       <c r="Q5">
-        <v>0.15326146023833728</v>
+        <f>X16/SUM(X5:X16)</f>
+        <v>6.3945807136760041E-2</v>
       </c>
       <c r="R5">
-        <v>7.5377990107032208E-2</v>
+        <f t="shared" ref="R5:S5" si="0">Y16/SUM(Y5:Y16)</f>
+        <v>6.23630708831436E-2</v>
       </c>
       <c r="S5">
-        <v>0.16547845480107409</v>
+        <f t="shared" si="0"/>
+        <v>6.309907195235466E-2</v>
       </c>
       <c r="T5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5">
+        <v>197.583258</v>
+      </c>
+      <c r="Y5">
+        <v>186.49799999999999</v>
+      </c>
+      <c r="Z5">
+        <v>179.886212</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5">
+        <v>32.190674000000001</v>
+      </c>
+      <c r="AD5">
+        <v>33.843599999999995</v>
+      </c>
+      <c r="AE5">
+        <v>35.464179999999999</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5">
+        <v>10.936926999999999</v>
+      </c>
+      <c r="AI5">
+        <v>9.8496000000000006</v>
+      </c>
+      <c r="AJ5">
+        <v>8.8655460000000001</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5">
+        <v>29.976204000000003</v>
+      </c>
+      <c r="AN5">
+        <v>31.391648999999997</v>
+      </c>
+      <c r="AO5">
+        <v>31.482131999999996</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR5">
+        <v>34.570567799999999</v>
+      </c>
+      <c r="AS5">
+        <v>34.503120000000003</v>
+      </c>
+      <c r="AT5">
+        <v>34.084044900000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
         <f>"UC_IND_ELC_"&amp;M6</f>
         <v>UC_IND_ELC_Iron&amp;Steel</v>
@@ -713,9 +887,9 @@
       <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M6,$T$5:$T$17,0),MATCH($H6,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.14249999999999999</v>
+        <v>-5.6999999999999995E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -741,8 +915,68 @@
       <c r="T6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6">
+        <v>29.540658999999998</v>
+      </c>
+      <c r="Y6">
+        <v>38.292796000000003</v>
+      </c>
+      <c r="Z6">
+        <v>28.433278999999999</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6">
+        <v>1.043671</v>
+      </c>
+      <c r="AD6">
+        <v>1.3430580000000001</v>
+      </c>
+      <c r="AE6">
+        <v>1.0975979999999999</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH6">
+        <v>0.42683199999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.25363200000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.18055199999999999</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6">
+        <v>0.35705100000000001</v>
+      </c>
+      <c r="AN6">
+        <v>0.10763500000000001</v>
+      </c>
+      <c r="AO6">
+        <v>1.4745050000000002</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR6">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="AS6">
+        <v>0.12681600000000001</v>
+      </c>
+      <c r="AT6">
+        <v>7.16188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>"IND"&amp;O6&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -763,20 +997,80 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="Q7" s="8">
-        <v>1.2258230820385185E-2</v>
-      </c>
-      <c r="R7" s="8">
-        <v>1.1275904506008938E-2</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1.638765767095976E-2</v>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7">
+        <v>0.45648050000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.84557650000000006</v>
+      </c>
+      <c r="Z7">
+        <v>0.1073175</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM7">
+        <v>3.3692E-2</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR7">
+        <v>0.101076</v>
+      </c>
+      <c r="AS7">
+        <v>5.0862000000000004E-2</v>
+      </c>
+      <c r="AT7">
+        <v>2.6925999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>"IND"&amp;O8&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -796,7 +1090,7 @@
       </c>
       <c r="J8">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M8,$T$5:$T$17,0),MATCH($H8,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-7.5999999999999998E-2</v>
+        <v>-5.6999999999999995E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -813,19 +1107,79 @@
         <v>S</v>
       </c>
       <c r="Q8">
-        <v>9.3475698780981192E-2</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>9.1748964638419875E-2</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>8.079498811838412E-2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Z8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AI8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>0.12</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM8">
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>5.415</v>
+      </c>
+      <c r="AO8">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR8">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AS8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AT8">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>"IND"&amp;O8&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -847,19 +1201,34 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>5.652786159726414E-2</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.17901818564070221</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.21241434905280129</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>"IND"&amp;O10&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -879,7 +1248,7 @@
       </c>
       <c r="J10">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M10,$T$5:$T$17,0),MATCH($H10,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.1615</v>
+        <v>-5.6999999999999995E-2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -896,19 +1265,79 @@
         <v>S</v>
       </c>
       <c r="Q10">
-        <v>0.16219119226638024</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>4.1611914148050808E-2</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.7994858611825193</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1E-3</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AD10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AE10">
+        <v>0.01</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AN10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AO10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>"IND"&amp;O10&amp;"DPH*"</f>
         <v>INDSDPH*</v>
@@ -930,19 +1359,82 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5.5108867891308186E-2</v>
+        <f>AC16/SUM(AC5:AC16)</f>
+        <v>0.46048351581598507</v>
       </c>
       <c r="R11">
-        <v>0.91155078895463504</v>
+        <f t="shared" ref="R11:S11" si="1">AD16/SUM(AD5:AD16)</f>
+        <v>0.48311457529289981</v>
       </c>
       <c r="S11">
-        <v>0.90580353308328798</v>
+        <f t="shared" si="1"/>
+        <v>0.46790594012667514</v>
       </c>
       <c r="T11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11">
+        <v>0.20174</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11">
+        <v>0.96835199999999999</v>
+      </c>
+      <c r="AD11">
+        <v>1.2220499999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.68583099999999997</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11">
+        <v>0.36313200000000001</v>
+      </c>
+      <c r="AI11">
+        <v>8.1470000000000001E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM11">
+        <v>0.36313200000000001</v>
+      </c>
+      <c r="AN11">
+        <v>8.1470000000000001E-2</v>
+      </c>
+      <c r="AO11">
+        <v>4.0343000000000004E-2</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f>"UC_IND_ELC_"&amp;M12</f>
         <v>UC_IND_ELC_Aluminium</v>
@@ -966,7 +1458,7 @@
       </c>
       <c r="J12">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M12,$T$5:$T$17,0),MATCH($H12,$Q$4:$S$4,0)),2)*$Q$2*0.95</f>
-        <v>-5.414999999999999E-2</v>
+        <v>-0.41514999999999996</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -981,19 +1473,82 @@
         <v>22</v>
       </c>
       <c r="Q12">
-        <v>1.9124891335844683E-2</v>
+        <f>AR16/SUM(AR5:AR16)</f>
+        <v>0.13948282648324989</v>
       </c>
       <c r="R12">
-        <v>5.0667894979272215E-3</v>
+        <f t="shared" ref="R12:S12" si="2">AS16/SUM(AS5:AS16)</f>
+        <v>0.1465256471970148</v>
       </c>
       <c r="S12">
-        <v>0.10755148741418764</v>
+        <f t="shared" si="2"/>
+        <v>0.11638469439941151</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12">
+        <v>0.65594174999999999</v>
+      </c>
+      <c r="Y12">
+        <v>1.1341499999999999E-2</v>
+      </c>
+      <c r="Z12">
+        <v>1.07685E-2</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH12">
+        <v>1.1507749999999999E-2</v>
+      </c>
+      <c r="AI12">
+        <v>1.1341499999999999E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.07685E-2</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM12">
+        <v>0.39126350000000004</v>
+      </c>
+      <c r="AN12">
+        <v>6.8049000000000012E-2</v>
+      </c>
+      <c r="AO12">
+        <v>0.107685</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR12">
+        <v>5.753875E-2</v>
+      </c>
+      <c r="AS12">
+        <v>3.4024500000000006E-2</v>
+      </c>
+      <c r="AT12">
+        <v>5.3842500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>"IND"&amp;O12&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -1015,19 +1570,79 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.14124175479007434</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.11592975420887063</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0.18776085695213018</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13">
+        <v>0.312</v>
+      </c>
+      <c r="AD13">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AE13">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>2E-3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>"IND"&amp;O14&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -1047,7 +1662,7 @@
       </c>
       <c r="J14">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M14,$T$5:$T$17,0),MATCH($H14,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.86449999999999994</v>
+        <v>-0.45599999999999996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1075,8 +1690,68 @@
       <c r="T14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>"IND"&amp;O14&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -1098,19 +1773,37 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.21155516941789754</v>
+        <f>AH16/SUM(AH5:AH16)</f>
+        <v>0.13112580485420611</v>
       </c>
       <c r="R15">
-        <v>0.15232302316552351</v>
+        <f t="shared" ref="R15:S15" si="3">AI16/SUM(AI5:AI16)</f>
+        <v>0.13646656819529701</v>
       </c>
       <c r="S15">
-        <v>0.19242014160856791</v>
+        <f t="shared" si="3"/>
+        <v>0.13241865491464336</v>
       </c>
       <c r="T15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>"IND"&amp;O16&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -1130,7 +1823,7 @@
       </c>
       <c r="J16">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M16,$T$5:$T$17,0),MATCH($H16,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.86449999999999994</v>
+        <v>-0.44649999999999995</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1147,19 +1840,79 @@
         <v>A</v>
       </c>
       <c r="Q16">
-        <v>0.30490002085479584</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.17610198159978419</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.24402494523624318</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16">
+        <v>15.605568000000002</v>
+      </c>
+      <c r="Y16">
+        <v>15.012288</v>
+      </c>
+      <c r="Z16">
+        <v>14.038271999999999</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16">
+        <v>29.473200000000002</v>
+      </c>
+      <c r="AD16">
+        <v>34.281359999999999</v>
+      </c>
+      <c r="AE16">
+        <v>32.9724</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH16">
+        <v>1.7870400000000002</v>
+      </c>
+      <c r="AI16">
+        <v>1.6264799999999999</v>
+      </c>
+      <c r="AJ16">
+        <v>1.4011200000000001</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM16">
+        <v>6.3003600000000004</v>
+      </c>
+      <c r="AN16">
+        <v>6.2067600000000001</v>
+      </c>
+      <c r="AO16">
+        <v>6.0969600000000002</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR16">
+        <v>5.7795119999999995</v>
+      </c>
+      <c r="AS16">
+        <v>5.9988599999999996</v>
+      </c>
+      <c r="AT16">
+        <v>5.5008720000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>"IND"&amp;O16&amp;"DPH*"</f>
         <v>INDADPH*</v>
@@ -1181,19 +1934,22 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>3.2159656753724737E-2</v>
+        <f>AM16/SUM(AM5:AM16)</f>
+        <v>0.15189751650299338</v>
       </c>
       <c r="R17">
-        <v>3.0384271671134944E-2</v>
+        <f t="shared" ref="R17:S17" si="4">AN16/SUM(AN5:AN16)</f>
+        <v>0.14324869255414724</v>
       </c>
       <c r="S17">
-        <v>0.10850748596381785</v>
+        <f t="shared" si="4"/>
+        <v>0.13870400650641401</v>
       </c>
       <c r="T17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f>"UC_IND_ELC_"&amp;M18</f>
         <v>UC_IND_ELC_Textile</v>
@@ -1217,7 +1973,7 @@
       </c>
       <c r="J18">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M18,$T$5:$T$17,0),MATCH($H18,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.19949999999999998</v>
+        <v>-0.1235</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1232,7 +1988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>"IND"&amp;O18&amp;"DPH*"</f>
         <v>INDLDPH*</v>
@@ -1254,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>"IND"&amp;O20&amp;"DPH*"</f>
         <v>INDLDPH*</v>
@@ -1274,7 +2030,7 @@
       </c>
       <c r="J20">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M20,$T$5:$T$17,0),MATCH($H20,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.14249999999999999</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1292,7 +2048,7 @@
       </c>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>"IND"&amp;O20&amp;"DPH*"</f>
         <v>INDLDPH*</v>
@@ -1314,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>"IND"&amp;O22&amp;"DPH*"</f>
         <v>INDLDPH*</v>
@@ -1334,7 +2090,7 @@
       </c>
       <c r="J22">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M22,$T$5:$T$17,0),MATCH($H22,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.18049999999999999</v>
+        <v>-0.1235</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1351,7 +2107,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>"IND"&amp;O22&amp;"DPH*"</f>
         <v>INDLDPH*</v>
@@ -1373,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f>"UC_IND_ELC_"&amp;M24</f>
         <v>UC_IND_ELC_Other</v>
@@ -1397,7 +2153,7 @@
       </c>
       <c r="J24">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M24,$T$5:$T$17,0),MATCH($H24,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-2.8499999999999998E-2</v>
+        <v>-0.14249999999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1412,7 +2168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>"IND"&amp;O24&amp;"DPH*"</f>
         <v>INDODPH*</v>
@@ -1434,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>"IND"&amp;O26&amp;"DPH*"</f>
         <v>INDODPH*</v>
@@ -1454,7 +2210,7 @@
       </c>
       <c r="J26">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M26,$T$5:$T$17,0),MATCH($H26,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-2.8499999999999998E-2</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1471,7 +2227,7 @@
         <v>O</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>"IND"&amp;O26&amp;"DPH*"</f>
         <v>INDODPH*</v>
@@ -1493,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>"IND"&amp;O28&amp;"DPH*"</f>
         <v>INDODPH*</v>
@@ -1513,7 +2269,7 @@
       </c>
       <c r="J28">
         <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M28,$T$5:$T$17,0),MATCH($H28,$Q$4:$S$4,0)),2)*$Q$2</f>
-        <v>-0.1045</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1530,7 +2286,7 @@
         <v>O</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>"IND"&amp;O28&amp;"DPH*"</f>
         <v>INDODPH*</v>
@@ -1549,6 +2305,185 @@
         <v>17</v>
       </c>
       <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B30" t="str">
+        <f>"UC_IND_ELC_"&amp;M30</f>
+        <v>UC_IND_ELC_Transport</v>
+      </c>
+      <c r="D30" t="str">
+        <f>"IND"&amp;O30&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="str">
+        <f>"I"&amp;O30&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="H30">
+        <v>2010</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M30,$T$5:$T$17,0),MATCH($H30,$Q$4:$S$4,0)),2)*$Q$2</f>
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D31" t="str">
+        <f>"IND"&amp;O30&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"I"&amp;O30&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="H31">
+        <v>2010</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D32" t="str">
+        <f>"IND"&amp;O32&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="str">
+        <f>"I"&amp;O32&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="H32">
+        <v>2015</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M32,$T$5:$T$17,0),MATCH($H32,$Q$4:$S$4,0)),2)*$Q$2</f>
+        <v>-0.14249999999999999</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32" t="str">
+        <f>M30</f>
+        <v>Transport</v>
+      </c>
+      <c r="O32" t="str">
+        <f>O30</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D33" t="str">
+        <f>"IND"&amp;O32&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="str">
+        <f>"I"&amp;O32&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="H33">
+        <v>2015</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D34" t="str">
+        <f>"IND"&amp;O34&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="str">
+        <f>"I"&amp;O34&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="H34">
+        <v>2019</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <f>ROUND(-INDEX($Q$5:$S$17,MATCH($M34,$T$5:$T$17,0),MATCH($H34,$Q$4:$S$4,0)),2)*$Q$2</f>
+        <v>-0.11399999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+      <c r="M34" t="str">
+        <f>M32</f>
+        <v>Transport</v>
+      </c>
+      <c r="O34" t="str">
+        <f>O32</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D35" t="str">
+        <f>"IND"&amp;O34&amp;"DPH*"</f>
+        <v>INDTDPH*</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="str">
+        <f>"I"&amp;O34&amp;"DPH"</f>
+        <v>ITDPH</v>
+      </c>
+      <c r="H35">
+        <v>2019</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
     </row>
@@ -1559,6 +2494,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -1781,15 +2725,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1797,13 +2732,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5788E150-902C-4139-B52B-F64596FFF034}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C23BD660-9E1C-4FBF-9832-A419F6A686EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C23BD660-9E1C-4FBF-9832-A419F6A686EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5788E150-902C-4139-B52B-F64596FFF034}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
+    <ds:schemaRef ds:uri="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17620042-D97D-455C-AAE5-950736A2CE62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17620042-D97D-455C-AAE5-950736A2CE62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>